--- a/SPBC/IEEE13/IEEE13testload_w_act.xlsx
+++ b/SPBC/IEEE13/IEEE13testload_w_act.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasperpakshong/Documents/Berkeley/ENERGISE/SPBC-HIL/energise-implementation/SPBC/IEEE13/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6DF793B-9C4E-7340-BAD9-F611081461D6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E72A156-2438-774B-9366-44BCAD80C9F0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="11000" windowHeight="6920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Time_series_example" sheetId="152" r:id="rId1"/>
+    <sheet name="Time_Series_data" sheetId="152" r:id="rId1"/>
     <sheet name="Multiphase Load Base" sheetId="150" r:id="rId2"/>
     <sheet name="M8_pv" sheetId="142" r:id="rId3"/>
     <sheet name="M8_max" sheetId="115" r:id="rId4"/>
